--- a/mzLib/Test/RetentionTimeCalibrationTestCase.xlsx
+++ b/mzLib/Test/RetentionTimeCalibrationTestCase.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elabo\Documents\GitHub\mzLib-Fork\mzLib\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38516B7E-9342-494C-B9AB-C1455B0BC543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F9F7F5-7476-4DA9-AB0B-659F877F28E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E4A8C9AB-750C-4D4A-B4CD-143982CBDBB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -587,10 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F0BD08-1015-4790-946E-C82FFCA606DB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A13" sqref="A13:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,7 +613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>175.24016</v>
       </c>
@@ -632,7 +636,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>166.06129000000001</v>
       </c>
@@ -659,7 +663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>34.399250000000002</v>
       </c>
@@ -670,7 +674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>173.39687000000001</v>
       </c>
@@ -681,7 +685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>53.8748</v>
       </c>
@@ -692,7 +696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>139.34978000000001</v>
       </c>
@@ -703,7 +707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>81.204490000000007</v>
       </c>
@@ -714,7 +718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>42.507669999999997</v>
       </c>
@@ -725,7 +729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>57.433860000000003</v>
       </c>
@@ -736,7 +740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>146.18404000000001</v>
       </c>
@@ -747,7 +751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>94.266779999999997</v>
       </c>
@@ -769,7 +773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>176.35578000000001</v>
       </c>
@@ -780,7 +784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>166.45034000000001</v>
       </c>
@@ -802,7 +806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>187.35955999999999</v>
       </c>
@@ -813,7 +817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>181.46119999999999</v>
       </c>
@@ -835,7 +839,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>168.12843000000001</v>
       </c>
@@ -846,7 +850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>171.35139000000001</v>
       </c>
@@ -868,7 +872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>188.03274999999999</v>
       </c>
@@ -879,7 +883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>101.76396</v>
       </c>
@@ -901,7 +905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>168.27942999999999</v>
       </c>
@@ -912,7 +916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>181.19547</v>
       </c>
@@ -934,7 +938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>160.18187</v>
       </c>
@@ -945,7 +949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>66.581329999999994</v>
       </c>
@@ -967,7 +971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>184.17795000000001</v>
       </c>
@@ -978,7 +982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>73.275139999999993</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>77.530209999999997</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>185.14400000000001</v>
       </c>
@@ -1033,7 +1037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>163.09807000000001</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>143.94470000000001</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>38.61063</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>80.808769999999996</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>173.39687000000001</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>145.30089000000001</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>132.24574999999999</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>165.8938</v>
       </c>
@@ -1166,7 +1170,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C49" xr:uid="{D0F0BD08-1015-4790-946E-C82FFCA606DB}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="File3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>